--- a/municipal/ENG/Education/Preschool and Education Institutions/Guria/Chokhatauri.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Guria/Chokhatauri.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\გურია\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\Guria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>municipality</t>
     </r>
   </si>
 </sst>
@@ -295,10 +305,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,11 +318,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,7 +610,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,16 +622,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="13"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -631,16 +641,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -678,11 +688,11 @@
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="8">
         <v>19</v>
       </c>
@@ -710,11 +720,11 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="9">
         <v>600</v>
       </c>
@@ -742,11 +752,11 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="10">
         <v>62</v>
       </c>
@@ -774,11 +784,11 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9">
         <v>9.67741935483871</v>
       </c>
@@ -816,11 +826,11 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="14">
         <v>32.582134129785501</v>
       </c>
@@ -858,11 +868,11 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="15">
         <v>969.21052631578937</v>
       </c>
@@ -887,10 +897,10 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -902,11 +912,11 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -919,16 +929,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/municipal/ENG/Education/Preschool and Education Institutions/Guria/Chokhatauri.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Guria/Chokhatauri.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\Guria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\ENG\Education\Preschool and Education Institutions\Guria\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F474353-FB44-4096-9CC0-01D767AD5BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chokhatauri" sheetId="1" r:id="rId1"/>
@@ -112,10 +113,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -264,51 +266,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,15 +323,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,22 +607,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D7" sqref="D7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="12" customWidth="1"/>
-    <col min="2" max="13" width="13" style="4" customWidth="1"/>
-    <col min="14" max="18" width="12" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="45.42578125" style="10" customWidth="1"/>
+    <col min="2" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="18" width="12" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
@@ -632,313 +633,250 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="8">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="7">
         <v>19</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>19</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>20</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>20</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="9">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="8">
         <v>600</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>681</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>634</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>574</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>579</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="10">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="6">
         <v>62</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>43</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>85</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>92</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>93</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="9">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21">
         <v>9.67741935483871</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="21">
         <v>15.837209302325581</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="21">
         <v>7.4588235294117649</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="21">
         <v>6.2391304347826084</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="21">
         <v>6.225806451612903</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="14">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="22">
         <v>32.582134129785501</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="22">
         <v>37.288506817061815</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="22">
         <v>35.155816790506826</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="22">
         <v>32.155061341101337</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="22">
         <v>32.908946231669887</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="23">
         <v>969.21052631578937</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="23">
         <v>961.21052631578948</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="23">
         <v>901.69999999999993</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="23">
         <v>892.55</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="23">
         <v>879.7</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
